--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Omg-Lingo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Omg-Lingo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.001858</v>
+        <v>1.535573</v>
       </c>
       <c r="H2">
-        <v>6.003716000000001</v>
+        <v>3.071146</v>
       </c>
       <c r="I2">
-        <v>0.1699513786981177</v>
+        <v>0.07799861199039625</v>
       </c>
       <c r="J2">
-        <v>0.1289067695015173</v>
+        <v>0.05613057672622927</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -567,27 +567,27 @@
         <v>0.289704</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.3543662778110081</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.4515435187176778</v>
       </c>
       <c r="Q2">
-        <v>0.289883423344</v>
+        <v>0.148287213464</v>
       </c>
       <c r="R2">
-        <v>1.739300540064</v>
+        <v>0.8897232807840001</v>
       </c>
       <c r="S2">
-        <v>0.1699513786981177</v>
+        <v>0.02764007780546178</v>
       </c>
       <c r="T2">
-        <v>0.1289067695015173</v>
+        <v>0.02534539812261415</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.766820333333333</v>
+        <v>1.535573</v>
       </c>
       <c r="H3">
-        <v>5.300461</v>
+        <v>3.071146</v>
       </c>
       <c r="I3">
-        <v>0.1000292324160129</v>
+        <v>0.07799861199039625</v>
       </c>
       <c r="J3">
-        <v>0.113807066220118</v>
+        <v>0.05613057672622927</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.096568</v>
+        <v>0.175941</v>
       </c>
       <c r="N3">
-        <v>0.289704</v>
+        <v>0.351882</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.6456337221889918</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.5484564812823222</v>
       </c>
       <c r="Q3">
-        <v>0.1706183059493333</v>
+        <v>0.270170249193</v>
       </c>
       <c r="R3">
-        <v>1.535564753544</v>
+        <v>1.080680996772</v>
       </c>
       <c r="S3">
-        <v>0.1000292324160129</v>
+        <v>0.05035853418493446</v>
       </c>
       <c r="T3">
-        <v>0.113807066220118</v>
+        <v>0.03078517860361511</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.723455</v>
+        <v>1.766820333333333</v>
       </c>
       <c r="H4">
-        <v>8.170365</v>
+        <v>5.300461</v>
       </c>
       <c r="I4">
-        <v>0.1541894826711596</v>
+        <v>0.08974469701955506</v>
       </c>
       <c r="J4">
-        <v>0.175427245025958</v>
+        <v>0.09687521623683339</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,27 +691,27 @@
         <v>0.289704</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.3543662778110081</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.4515435187176778</v>
       </c>
       <c r="Q4">
-        <v>0.26299860244</v>
+        <v>0.1706183059493333</v>
       </c>
       <c r="R4">
-        <v>2.36698742196</v>
+        <v>1.535564753544</v>
       </c>
       <c r="S4">
-        <v>0.1541894826711596</v>
+        <v>0.0318024942360964</v>
       </c>
       <c r="T4">
-        <v>0.175427245025958</v>
+        <v>0.04374337601611566</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.413168</v>
+        <v>1.766820333333333</v>
       </c>
       <c r="H5">
-        <v>6.826336</v>
+        <v>5.300461</v>
       </c>
       <c r="I5">
-        <v>0.1932378571299165</v>
+        <v>0.08974469701955506</v>
       </c>
       <c r="J5">
-        <v>0.1465693782470572</v>
+        <v>0.09687521623683339</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.096568</v>
+        <v>0.175941</v>
       </c>
       <c r="N5">
-        <v>0.289704</v>
+        <v>0.351882</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.6456337221889918</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.5484564812823222</v>
       </c>
       <c r="Q5">
-        <v>0.329602807424</v>
+        <v>0.310856136267</v>
       </c>
       <c r="R5">
-        <v>1.977616844544</v>
+        <v>1.865136817602</v>
       </c>
       <c r="S5">
-        <v>0.1932378571299165</v>
+        <v>0.05794220278345866</v>
       </c>
       <c r="T5">
-        <v>0.1465693782470572</v>
+        <v>0.05313184022071772</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.258577666666667</v>
+        <v>4.075004666666667</v>
       </c>
       <c r="H6">
-        <v>6.775733000000001</v>
+        <v>12.225014</v>
       </c>
       <c r="I6">
-        <v>0.127870268462658</v>
+        <v>0.2069876898424154</v>
       </c>
       <c r="J6">
-        <v>0.1454828729464925</v>
+        <v>0.2234335607314751</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,27 +815,27 @@
         <v>0.289704</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.3543662778110081</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.4515435187176778</v>
       </c>
       <c r="Q6">
-        <v>0.2181063281146667</v>
+        <v>0.3935150506506667</v>
       </c>
       <c r="R6">
-        <v>1.962956953032</v>
+        <v>3.541635455856</v>
       </c>
       <c r="S6">
-        <v>0.127870268462658</v>
+        <v>0.07334945720215615</v>
       </c>
       <c r="T6">
-        <v>0.1454828729464925</v>
+        <v>0.1008899762123102</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,418 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.499161</v>
+        <v>4.075004666666667</v>
       </c>
       <c r="H7">
-        <v>13.497483</v>
+        <v>12.225014</v>
       </c>
       <c r="I7">
-        <v>0.2547217806221352</v>
+        <v>0.2069876898424154</v>
       </c>
       <c r="J7">
-        <v>0.2898066680588569</v>
+        <v>0.2234335607314751</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>0.175941</v>
+      </c>
+      <c r="N7">
+        <v>0.351882</v>
+      </c>
+      <c r="O7">
+        <v>0.6456337221889918</v>
+      </c>
+      <c r="P7">
+        <v>0.5484564812823222</v>
+      </c>
+      <c r="Q7">
+        <v>0.7169603960579999</v>
+      </c>
+      <c r="R7">
+        <v>4.301762376348</v>
+      </c>
+      <c r="S7">
+        <v>0.1336382326402592</v>
+      </c>
+      <c r="T7">
+        <v>0.1225435845191649</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.811664</v>
+      </c>
+      <c r="H8">
+        <v>5.623328</v>
+      </c>
+      <c r="I8">
+        <v>0.1428169741089258</v>
+      </c>
+      <c r="J8">
+        <v>0.1027761766326815</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>0.096568</v>
       </c>
-      <c r="N7">
+      <c r="N8">
         <v>0.289704</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>0.434474979448</v>
-      </c>
-      <c r="R7">
-        <v>3.910274815032</v>
-      </c>
-      <c r="S7">
-        <v>0.2547217806221352</v>
-      </c>
-      <c r="T7">
-        <v>0.2898066680588569</v>
+      <c r="O8">
+        <v>0.3543662778110081</v>
+      </c>
+      <c r="P8">
+        <v>0.4515435187176778</v>
+      </c>
+      <c r="Q8">
+        <v>0.271516769152</v>
+      </c>
+      <c r="R8">
+        <v>1.629100614912</v>
+      </c>
+      <c r="S8">
+        <v>0.05060951952321114</v>
+      </c>
+      <c r="T8">
+        <v>0.04640791643707059</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.811664</v>
+      </c>
+      <c r="H9">
+        <v>5.623328</v>
+      </c>
+      <c r="I9">
+        <v>0.1428169741089258</v>
+      </c>
+      <c r="J9">
+        <v>0.1027761766326815</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <v>0.175941</v>
+      </c>
+      <c r="N9">
+        <v>0.351882</v>
+      </c>
+      <c r="O9">
+        <v>0.6456337221889918</v>
+      </c>
+      <c r="P9">
+        <v>0.5484564812823222</v>
+      </c>
+      <c r="Q9">
+        <v>0.494686975824</v>
+      </c>
+      <c r="R9">
+        <v>1.978747903296</v>
+      </c>
+      <c r="S9">
+        <v>0.09220745458571462</v>
+      </c>
+      <c r="T9">
+        <v>0.05636826019561093</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7.050357000000001</v>
+      </c>
+      <c r="H10">
+        <v>21.151071</v>
+      </c>
+      <c r="I10">
+        <v>0.3581191255881512</v>
+      </c>
+      <c r="J10">
+        <v>0.3865728993696239</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.096568</v>
+      </c>
+      <c r="N10">
+        <v>0.289704</v>
+      </c>
+      <c r="O10">
+        <v>0.3543662778110081</v>
+      </c>
+      <c r="P10">
+        <v>0.4515435187176778</v>
+      </c>
+      <c r="Q10">
+        <v>0.6808388747760001</v>
+      </c>
+      <c r="R10">
+        <v>6.127549872984001</v>
+      </c>
+      <c r="S10">
+        <v>0.1269053415476061</v>
+      </c>
+      <c r="T10">
+        <v>0.1745544872222547</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>7.050357000000001</v>
+      </c>
+      <c r="H11">
+        <v>21.151071</v>
+      </c>
+      <c r="I11">
+        <v>0.3581191255881512</v>
+      </c>
+      <c r="J11">
+        <v>0.3865728993696239</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.175941</v>
+      </c>
+      <c r="N11">
+        <v>0.351882</v>
+      </c>
+      <c r="O11">
+        <v>0.6456337221889918</v>
+      </c>
+      <c r="P11">
+        <v>0.5484564812823222</v>
+      </c>
+      <c r="Q11">
+        <v>1.240446860937</v>
+      </c>
+      <c r="R11">
+        <v>7.442681165622</v>
+      </c>
+      <c r="S11">
+        <v>0.2312137840405451</v>
+      </c>
+      <c r="T11">
+        <v>0.2120184121473691</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.447764666666667</v>
+      </c>
+      <c r="H12">
+        <v>7.343294</v>
+      </c>
+      <c r="I12">
+        <v>0.1243329014505562</v>
+      </c>
+      <c r="J12">
+        <v>0.1342115703031569</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.096568</v>
+      </c>
+      <c r="N12">
+        <v>0.289704</v>
+      </c>
+      <c r="O12">
+        <v>0.3543662778110081</v>
+      </c>
+      <c r="P12">
+        <v>0.4515435187176778</v>
+      </c>
+      <c r="Q12">
+        <v>0.2363757383306667</v>
+      </c>
+      <c r="R12">
+        <v>2.127381644976</v>
+      </c>
+      <c r="S12">
+        <v>0.04405938749647649</v>
+      </c>
+      <c r="T12">
+        <v>0.06060236470731244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.447764666666667</v>
+      </c>
+      <c r="H13">
+        <v>7.343294</v>
+      </c>
+      <c r="I13">
+        <v>0.1243329014505562</v>
+      </c>
+      <c r="J13">
+        <v>0.1342115703031569</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.175941</v>
+      </c>
+      <c r="N13">
+        <v>0.351882</v>
+      </c>
+      <c r="O13">
+        <v>0.6456337221889918</v>
+      </c>
+      <c r="P13">
+        <v>0.5484564812823222</v>
+      </c>
+      <c r="Q13">
+        <v>0.4306621632179999</v>
+      </c>
+      <c r="R13">
+        <v>2.583972979308</v>
+      </c>
+      <c r="S13">
+        <v>0.08027351395407971</v>
+      </c>
+      <c r="T13">
+        <v>0.07360920559584441</v>
       </c>
     </row>
   </sheetData>
